--- a/element_data_infos/page_element_infos.xlsx
+++ b/element_data_infos/page_element_infos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\67438\PycharmProjects\PO_UI_Test_Framework\element_data_infos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B4180-01D5-4B3D-93B9-CC1C6DE7C00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69642C97-8A13-4194-97E9-77C756D20305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="690" windowWidth="13680" windowHeight="9533" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4928" yWindow="2370" windowWidth="13680" windowHeight="9533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>元素变量名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,54 @@
   </si>
   <si>
     <t>//input[@id="password1"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myzone_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstpage_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calendar_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug_link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug链接[%s]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug_page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[text()=%s]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,20 +576,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="26.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,16 +598,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,16 +618,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -583,16 +638,19 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -600,13 +658,36 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -618,20 +699,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315BD3C9-4CF8-4B82-8830-9329A98E20F9}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" customWidth="1"/>
+    <col min="5" max="5" width="30.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,16 +721,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -656,16 +741,19 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -673,16 +761,19 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -690,16 +781,19 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -707,16 +801,19 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -724,16 +821,19 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -741,16 +841,19 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -758,16 +861,19 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -775,16 +881,19 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -792,16 +901,19 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -809,13 +921,38 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>5</v>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
